--- a/data/trans_orig/Q33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Estudios-trans_orig.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,19</t>
+          <t>7,0; 7,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,0</t>
+          <t>6,83; 6,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,05</t>
+          <t>6,92; 7,04</t>
         </is>
       </c>
     </row>
@@ -811,19 +811,19 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,26</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,56</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,26</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>7,32</t>
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,2</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,42</t>
+          <t>7,2; 7,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,11</t>
+          <t>6,65; 7,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,22</t>
+          <t>7,04; 7,53</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,15</t>
+          <t>6,96; 7,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,14</t>
+          <t>6,98; 7,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,12</t>
+          <t>7,0; 7,11</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>7,13</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,3</t>
+          <t>7,16; 7,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,06</t>
+          <t>6,78; 7,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,15</t>
+          <t>7,04; 7,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Estudios-trans_orig.xlsx
@@ -724,27 +724,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,55</t>
+          <t>7,4; 7,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,58</t>
+          <t>7,37; 7,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,63</t>
+          <t>7,43; 7,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,19</t>
+          <t>6,99; 7,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,22</t>
+          <t>7,09; 7,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,18</t>
+          <t>7,01; 7,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,28</t>
+          <t>7,14; 7,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,35</t>
+          <t>7,21; 7,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,04</t>
+          <t>6,92; 7,05</t>
         </is>
       </c>
     </row>
@@ -864,27 +864,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 7,67</t>
+          <t>7,57; 7,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,46</t>
+          <t>7,35; 7,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,55</t>
+          <t>7,43; 7,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,91</t>
+          <t>7,2; 8,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,61</t>
+          <t>7,51; 7,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,22 +899,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 7,09</t>
+          <t>6,7; 7,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,63</t>
+          <t>7,56; 7,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,38</t>
+          <t>7,29; 7,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,45</t>
+          <t>7,37; 7,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,42 +1004,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,52</t>
+          <t>7,35; 7,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,33</t>
+          <t>7,11; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,41</t>
+          <t>7,2; 7,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,14</t>
+          <t>6,97; 7,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,57</t>
+          <t>7,39; 7,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,45</t>
+          <t>7,24; 7,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,37</t>
+          <t>7,17; 7,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,13</t>
+          <t>6,97; 7,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,36</t>
+          <t>7,21; 7,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,45</t>
+          <t>7,35; 7,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,72</t>
+          <t>7,15; 7,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,29</t>
+          <t>7,21; 7,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,04</t>
+          <t>6,8; 7,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,49</t>
+          <t>7,44; 7,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,38</t>
+          <t>7,03; 7,36</t>
         </is>
       </c>
     </row>
